--- a/dist/整合結果/聯合國際/excel_by_week/2025_W24.xlsx
+++ b/dist/整合結果/聯合國際/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗！猛轟核設施和軍事基地 各國反應一次看</t>
+          <t>以色列空襲伊朗至少95傷 傳20高階指揮官遭擊斃</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8805980?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8805981?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗至少95傷 傳20高階指揮官遭擊斃</t>
+          <t>以色列空襲伊朗！猛轟核設施和軍事基地 各國反應一次看</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8805981?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8805980?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>恐再提高進口汽車關稅…川普：關稅愈高 企業愈會來設廠</t>
+          <t>川普關稅政策反覆 美財長：這是戰略不確定性</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8803955?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8803967?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>川普關稅政策反覆 美財長：這是戰略不確定性</t>
+          <t>恐再提高進口汽車關稅…川普：關稅愈高 企業愈會來設廠</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8803967?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8803955?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>擁30年駕駛經驗…印航資深機師退休前遇死劫 8旬父等不到兒子歸來</t>
+          <t>印航空難僅1人奇蹟生還 家屬事故現場悲採DNA尋至親</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8805503?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8805370?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>印航空難僅1人奇蹟生還 家屬事故現場悲採DNA尋至親</t>
+          <t>川普貿易戰鬧不停！這家美國晶片公司遭殃 併購案被陸方卡關</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8805370?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8805458?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>川普貿易戰鬧不停！這家美國晶片公司遭殃 併購案被陸方卡關</t>
+          <t>印航空難…醫學生摸黑逃命驚見機尾 悚憶生死瞬間：濃煙猛烈湧進</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8805458?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8804940?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>大陸公民德州買房將受限 華人社群發起抗議「打爆州議員電話」</t>
+          <t>擁30年駕駛經驗…印航資深機師退休前遇死劫 8旬父等不到兒子歸來</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8805565?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8805503?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>印度航空墜毀前 駕駛絕望求救「失去動力」搶救17秒後無回應</t>
+          <t>印度航空重大空難逾260死 母公司塔塔集團：每人賠償344萬元</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8804954?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8804553?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>印度航空重大空難逾260死 母公司塔塔集團：每人賠償344萬元</t>
+          <t>才發生重大空難 印度航空普吉島飛德里航班驚傳收炸彈威脅</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8804553?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8805192?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>才發生重大空難 印度航空普吉島飛德里航班驚傳收炸彈威脅</t>
+          <t>馬克宏批社媒助長校園暴力 15歲以下擬禁 也促歐盟立法</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8805192?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8804324?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>馬克宏批社媒助長校園暴力 15歲以下擬禁 也促歐盟立法</t>
+          <t>印度航空墜毀前 駕駛絕望求救「失去動力」搶救17秒後無回應</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8804324?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8804954?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>印航空難…醫學生摸黑逃命驚見機尾 悚憶生死瞬間：濃煙猛烈湧進</t>
+          <t>大陸公民德州買房將受限 華人社群發起抗議「打爆州議員電話」</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8804940?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8805565?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>身價破百億！她34歲成紐西蘭首位華人女首富 靠2特質成功創業</t>
+          <t>川普狂吸金！代言聖經年賺逾3800萬 加密幣事業撈17億</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8804686?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807287?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>員工剉著等…英特爾擬7月中旬啟動裁員計畫 首波人數尚未確定</t>
+          <t>身價破百億！她34歲成紐西蘭首位華人女首富 靠2特質成功創業</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807262?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8804686?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>大規模驅逐移民引議 外媒：川普指示暫停農場、飯店掃蕩行動</t>
+          <t>員工剉著等…英特爾擬7月中旬啟動裁員計畫 首波人數尚未確定</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807222?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807262?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>中東衝突加劇 壓抑美股追高！下周再迎Fed考驗</t>
+          <t>大規模驅逐移民引議 外媒：川普指示暫停農場、飯店掃蕩行動</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807241?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807222?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>以伊激烈交戰 美債為何不漲反跌？分析師：原因錯綜複雜</t>
+          <t>中東衝突加劇 壓抑美股追高！下周再迎Fed考驗</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807219?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807241?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>衝突升溫！伊朗揚言加劇回應以色列攻擊 恐攻擊美國中東基地</t>
+          <t>以伊激烈交戰 美債為何不漲反跌？分析師：原因錯綜複雜</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807192?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807219?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>兩國敵意難消…李在明上任迎挑戰 能否推動南北韓關係緩和？</t>
+          <t>衝突升溫！伊朗揚言加劇回應以色列攻擊 恐攻擊美國中東基地</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807113?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807192?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>川普狂吸金！代言聖經年賺逾3800萬 加密幣事業撈17億</t>
+          <t>兩國敵意難消…李在明上任迎挑戰 能否推動南北韓關係緩和？</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807287?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807113?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>早預料以色列會動手？伊朗官員怒斥「高層重大誤判」 曝光簡訊內容</t>
+          <t>美估華為AI晶片年產僅20萬顆 商務部BIS局：絕不感到自滿</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807127?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807097?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>美估華為AI晶片年產僅20萬顆 商務部BIS局：絕不感到自滿</t>
+          <t>印航空難唯一倖存旅客：自己解開安全帶 難想像從火球走出</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807097?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8806664?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>印航空難唯一倖存旅客：自己解開安全帶 難想像從火球走出</t>
+          <t>「下波攻擊更猛」川普籲伊朗盡快達核協議</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8806664?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806619?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>「下波攻擊更猛」川普籲伊朗盡快達核協議</t>
+          <t>紐時：習近平交手川普「精準施壓、爭取時間」</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806619?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807104?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>紐時：習近平交手川普「精準施壓、爭取時間」</t>
+          <t>以色列關全球使領館 促海外國人填問卷通報所在位置</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807104?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806662?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>以色列關全球使領館 促海外國人填問卷通報所在位置</t>
+          <t>WSJ：以色列癱瘓伊朗 手段像對付哈瑪斯、真主黨</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806662?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806594?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WSJ：以色列癱瘓伊朗 手段像對付哈瑪斯、真主黨</t>
+          <t>歐盟27個成員國批准 收留烏克蘭難民延至2027年3月</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806594?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/122663/8806663?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>歐盟27個成員國批准 收留烏克蘭難民延至2027年3月</t>
+          <t>日鐵獲准收購美鋼 日媒：日美聯手與中互別苗頭</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/122663/8806663?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807305?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>日鐵獲准收購美鋼 日媒：日美聯手與中互別苗頭</t>
+          <t>美國家情報總監加巴德 社媒貼文示警：核戰一觸即發</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807305?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8806620?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>美國家情報總監加巴德 社媒貼文示警：核戰一觸即發</t>
+          <t>死亡人數上修…印航嚴重空難奪命 警方消息人士：增至279死</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8806620?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807122?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>死亡人數上修…印航嚴重空難奪命 警方消息人士：增至279死</t>
+          <t>美國德州遭遇洪患 至少10人喪命數人失蹤</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807122?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807317?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>美國德州遭遇洪患 至少10人喪命數人失蹤</t>
+          <t>以色列伊朗持續交火 教宗籲雙方展現理性進行對話</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807317?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807522?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>表彰體育和慈善貢獻 英格蘭足球傳奇貝克漢封爵</t>
+          <t>以國防部長撂狠話「德黑蘭將陷火海」 傳以色列再度空襲伊朗</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807527?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807374?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>以國防部長撂狠話「德黑蘭將陷火海」 傳以色列再度空襲伊朗</t>
+          <t>新澤西紐瓦克ICE拘留所爆發騷亂 4人脫逃</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807374?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806865?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>新澤西紐瓦克ICE拘留所爆發騷亂 4人脫逃</t>
+          <t>紐約時報：太陽升起時 伊朗核計畫仍在</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806865?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807672?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>紐約時報：太陽升起時 伊朗核計畫仍在</t>
+          <t>伊朗失算 沒料到以色列提前在美、伊核談判前動手</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807672?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807665?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>伊朗失算 沒料到以色列提前在美、伊核談判前動手</t>
+          <t>以色列特工「奮起雄獅」行動 在全伊朗祕密部署武器</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807665?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807661?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>以色列特工「奮起雄獅」行動 在全伊朗祕密部署武器</t>
+          <t>美防長赫塞斯：對以伊升溫不意外 準備好捍衛在中東利益</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807661?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807684?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>美防長赫塞斯：對以伊升溫不意外 準備好捍衛在中東利益</t>
+          <t>以色列和伊朗再次互射導彈 核設施暫無洩漏</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807684?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807565?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>以色列和伊朗再次互射導彈 核設施暫無洩漏</t>
+          <t>俄烏再度換俘 莫斯科另還1200具士兵遺體卻未收到交換</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807565?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/122663/8807540?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>俄烏再度換俘 莫斯科另還1200具士兵遺體卻未收到交換</t>
+          <t>科技股太貴難下手？專家點名三檔仍便宜 籲投資人先換腦袋</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/122663/8807540?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807545?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>科技股太貴難下手？專家點名三檔仍便宜 籲投資人先換腦袋</t>
+          <t>擋住俄軍推進 澤倫斯基：烏克蘭堅守蘇米州前線</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807545?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/122663/8807533?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>擋住俄軍推進 澤倫斯基：烏克蘭堅守蘇米州前線</t>
+          <t>伊朗遭猛攻後發射飛彈報復 以色列至少3死數十傷</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/122663/8807533?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807343?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>伊朗遭猛攻後發射飛彈報復 以色列至少3死數十傷</t>
+          <t>中美關稅戰暫休兵 台商仍抱觀望態度…專家建議善用1條款規則</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807343?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807536?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>中美關稅戰暫休兵 台商仍抱觀望態度…專家建議善用1條款規則</t>
+          <t>美陸軍成立250周年 川普生日閱兵將登場！各國經典閱兵式一次看</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807536?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807516?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>美陸軍成立250周年 川普生日閱兵將登場！各國經典閱兵式一次看</t>
+          <t>南韓民間團體再對北韓空飄傳單 李在明指示研擬處罰措施</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807516?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807498?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>南韓民間團體再對北韓空飄傳單 李在明指示研擬處罰措施</t>
+          <t>清淡飲食竟加速老化？醫師直言「1習慣超傷身」建議每天先喝這一杯</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807498?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8807474?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>清淡飲食竟加速老化？醫師直言「1習慣超傷身」建議每天先喝這一杯</t>
+          <t>南非東開普省洪患尋獲更多罹難者 增至86人喪命</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8807474?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807467?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>南非東開普省洪患尋獲更多罹難者 增至86人喪命</t>
+          <t>立中外交陷僵局 立陶宛議員：中方人員已明確「道別」</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807467?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807432?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>立中外交陷僵局 立陶宛議員：中方人員已明確「道別」</t>
+          <t>台灣與拉脫維亞智庫合推新書 聚焦歐洲對台政策</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807432?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807400?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>台灣與拉脫維亞智庫合推新書 聚焦歐洲對台政策</t>
+          <t>黑盒子解讀中！印度航空重大空難奪命 波音787全面受檢</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807400?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807462?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>黑盒子解讀中！印度航空重大空難奪命 波音787全面受檢</t>
+          <t>台灣在英宣傳赴台旅遊 倫敦鬧區現大型沉浸影音秀</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807462?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807383?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>台灣在英宣傳赴台旅遊 倫敦鬧區現大型沉浸影音秀</t>
+          <t>伊朗官媒證實2高階將領死於以色列打擊 約旦等國重開領空</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807383?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807421?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>伊朗官媒證實2高階將領死於以色列打擊 約旦等國重開領空</t>
+          <t>表彰體育和慈善貢獻 英格蘭足球傳奇貝克漢封爵</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807421?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807527?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>以色列伊朗持續交火 教宗籲雙方展現理性進行對話</t>
+          <t>美陸軍建軍250周年 90分鐘閱兵式 6000軍人重現重大戰役</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807522?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806873?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>美陸軍建軍250周年 90分鐘閱兵式 6000軍人重現重大戰役</t>
+          <t>早預料以色列會動手？伊朗官員怒斥「高層重大誤判」 曝光簡訊內容</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806873?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807127?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>美長債買盤穩健 化解疑慮</t>
+          <t>天外飛來橫禍 民眾樹下睡覺因印航空難無辜喪命</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806184?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807052?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>天外飛來橫禍 民眾樹下睡覺因印航空難無辜喪命</t>
+          <t>美長債買盤穩健 化解疑慮</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807052?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806184?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>6月14日美國「國旗日」由來？ 從地方活動變全國節日</t>
+          <t>美總統再轟鮑爾未降息</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806876?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806192?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>華為今年AI晶片 美商務部：估產20萬顆</t>
+          <t>以色列軍方證實伊朗發射飛彈 下令民眾避難</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806252?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806383?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>隱瞞以空襲 紐時：美正疏遠盟友</t>
+          <t>華為今年AI晶片 美商務部：估產20萬顆</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806256?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806252?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>川普再促聯準會降息 批主席鮑爾「傻瓜」、「太晚先生」</t>
+          <t>伊朗報復有5招 可能攻擊美基地</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806230?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806249?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>伊朗報復有5招 可能攻擊美基地</t>
+          <t>以斬首伊軍指揮官、核科學家 空軍高層幾乎團滅</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806249?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806244?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>以斬首伊軍指揮官、核科學家 空軍高層幾乎團滅</t>
+          <t>6月14日美國「國旗日」由來？ 從地方活動變全國節日</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806244?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806876?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>以色列軍方證實伊朗發射飛彈 下令民眾避難</t>
+          <t>隱瞞以空襲 紐時：美正疏遠盟友</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806383?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806256?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>美總統再轟鮑爾未降息</t>
+          <t>川普再促聯準會降息 批主席鮑爾「傻瓜」、「太晚先生」</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806192?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806230?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>美國陸戰隊員進駐洛杉磯 軍方證實首度拘留平民</t>
+          <t>以色列攻擊伊朗…道指暴跌700多點 避險需求推升油金價格</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806917?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806408?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>以色列猛攻伊朗真正目標不只核計畫？疑劍指「政權更迭」</t>
+          <t>川普早知以色列要攻伊朗 稱仍有空間談成核協議</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806985?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806760?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>川普早知以色列要攻伊朗 稱仍有空間談成核協議</t>
+          <t>遭遇嚴重塞車晚到機場10分鐘 女學生意外逃過印航墜機死劫</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806760?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8806825?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>遭遇嚴重塞車晚到機場10分鐘 女學生意外逃過印航墜機死劫</t>
+          <t>新郎度蜜月被殺棄屍山谷！新娘自首爆與情夫合謀「失敗3次才成功」</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8806825?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8806660?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>新郎度蜜月被殺棄屍山谷！新娘自首爆與情夫合謀「失敗3次才成功」</t>
+          <t>郭崇倫會客室EP215｜美債失控、美元動搖 1930年代經濟大蕭條正在醞釀？ft.國際金融史權威Barry Eichengreen</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8806660?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122217/8806732?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>以色列攻擊伊朗…道指暴跌700多點 避險需求推升油金價格</t>
+          <t>以色列空襲反效果？伊朗恐以利比亞前強人格達費為鑑 加速發展核武</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806408?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806759?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>以色列空襲反效果？伊朗恐以利比亞前強人格達費為鑑 加速發展核武</t>
+          <t>被稱煉金師 范斯政治權謀在川馬相爭中嶄露頭角</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806759?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121937/8805255?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>被稱煉金師 范斯政治權謀在川馬相爭中嶄露頭角</t>
+          <t>疑遭飛彈擊中！德黑蘭機場傳爆炸起火 濃煙狂竄</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8805255?from=udn-category</t>
+          <t>https://udn.com/news/story/124061/8806572?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>疑遭飛彈擊中！德黑蘭機場傳爆炸起火 濃煙狂竄</t>
+          <t>以色列猛攻伊朗真正目標不只核計畫？疑劍指「政權更迭」</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806572?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806985?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>郭崇倫會客室EP215｜美債失控、美元動搖 1930年代經濟大蕭條正在醞釀？ft.國際金融史權威Barry Eichengreen</t>
+          <t>美國陸戰隊員進駐洛杉磯 軍方證實首度拘留平民</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122217/8806732?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8806917?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>全美串連無王日抗議前夕 200名陸戰隊抵洛杉磯</t>
+          <t>幸運錯過印航墜機！印度女飛倫敦會丈夫 塞車晚10分鐘逃死劫</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806481?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8806475?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>美中台博弈／扮台海衝突外卡 朝鮮半島新局演變迅速</t>
+          <t>准了！川普發布行政命令 就日鐵收購美鋼達成國安協議</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122870/8805298?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8806503?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>漫畫家預言日本7月5日大地震 日氣象廳長官再發聲</t>
+          <t>華府閱兵儀式14日登場 1991年以來規模最大</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8806063?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806467?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>誓言打開「地獄之門」！伊朗對以色列狂射百枚飛彈報復</t>
+          <t>今昔文化的碰撞！千年古城慶州「永久存放核廢料」 南韓經驗台灣能學？</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806476?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8801772?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>全美擬2千場抗議「拒絕國王」行動挑戰最大規模示威</t>
+          <t>誓言打開「地獄之門」！伊朗對以色列狂射百枚飛彈報復</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806389?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806476?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>華府閱兵儀式14日登場 1991年以來規模最大</t>
+          <t>漫畫家預言日本7月5日大地震 日氣象廳長官再發聲</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806467?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8806063?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>准了！川普發布行政命令 就日鐵收購美鋼達成國安協議</t>
+          <t>全美擬2千場抗議「拒絕國王」行動挑戰最大規模示威</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806503?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806389?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>幸運錯過印航墜機！印度女飛倫敦會丈夫 塞車晚10分鐘逃死劫</t>
+          <t>美中台博弈／扮台海衝突外卡 朝鮮半島新局演變迅速</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8806475?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122870/8805298?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>今昔文化的碰撞！千年古城慶州「永久存放核廢料」 南韓經驗台灣能學？</t>
+          <t>全美串連無王日抗議前夕 200名陸戰隊抵洛杉磯</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8801772?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806481?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>伊朗認了第3個濃縮鈾設施 聯合國恐將恢復制裁</t>
+          <t>伊朗持續飛彈報復 以色列專挑油田轟炸</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807676?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807892?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TikTok寬限期將屆 貝森特：美中二輪談判沒討論這個</t>
+          <t>王毅促以伊外交解決戰火 明州州長：只有北京能促和談</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807680?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808048?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>二輪談判後陸釋善意 准106美肉品廠進口 再接收1架波音機</t>
+          <t>川普實現閱兵夢 逾6600兵、150車、50架飛機震撼華府</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807677?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807950?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>伊朗4波回擊以色列 200飛彈、逾70戰機互攻</t>
+          <t>貝克漢圓夢 英王室表彰體育和慈善貢獻封爵</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807682?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807917?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>加密貨幣有夠好賺？財報揭露 川普去年進帳至少180億</t>
+          <t>身亡明州議員 霍爾曼推任內通過擴大墮胎權、娛樂大麻合法化</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807681?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807910?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>美日第6輪關稅談判還在談...川普先簽字 允日鐵收購美鋼</t>
+          <t>大缺工 川普轉彎了 ICE暫停掃蕩搜捕農場、旅館、餐館</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807678?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807944?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>超級央行周來了 美日英台等國利率估不變</t>
+          <t>美旅遊禁令擬新增36國 非洲最多</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807650?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807906?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>以總理內唐亞胡 喊話伊朗人民「起義」</t>
+          <t>以色列總理喊話伊朗人民「起義」 猛攻德黑蘭劍指政權更迭</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807666?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807920?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,1304 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>以軍70架戰機奔襲德黑蘭 伊朗飛彈打海法</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808100?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>印航起飛1分鐘急求救 全面重檢波音787 女子遲到被拒登機逃死劫</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124515/8807915?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>日鐵獲准收購美鋼 華府持「黃金股」日媒：聯手與中別苗頭</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807916?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>川普過壽全美抗爭 批川威權、反濫用公帑</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8808247?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>影／印度再傳空難！直升機墜毀神廟附近釀7死 林間殘骸狂燒畫面曝</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124515/8808309?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>影／杜拜67層摩天大樓深夜大火！火舌沿牆猛竄畫面曝 3820人險逃生</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8808250?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>以色列持續轟炸伊朗 還想暗殺胡塞叛軍</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808141?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>政治謀殺 明州2參眾議員夫婦遭槍擊2死2傷 暗殺名單含州長、議員</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807951?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>iPhone更耐用的秘密？開箱蘋果矽谷測試實驗室</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808185?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>直擊以伊戰火 央視女記者戴頭盔、穿防彈背心直播</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808050?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>美國明尼蘇達州槍擊案 嫌犯曾向友人表示「時日無多」</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8808254?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>以色列連兩天攻擊加薩走廊 醫療機構估至少57死</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808695?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>法國前總統沙柯吉涉貪 最高榮譽勳章遭撤回</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8808397?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>「不要國王」示威 全美遍地開花反川普、反獨裁</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809073?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>影／一文看懂伊朗火力！「烈士」飛彈首曝光 以色列防空扛得住？</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808210?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>伊以繼續互相轟炸 川普稱衝突「很容易結束」</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809025?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>旅行禁令生效後…川普擬再擴大！36國新名單「非洲國家最多」</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809014?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>「普亭打給我」川普：美國可能將涉入以伊衝突 他可當和事佬</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809023?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>「讓中東再次偉大！」 川普喊以色列、伊朗一定達成協議</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808953?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>23年首見！東協超車大陸 成為「這國家」最大出口市場</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808917?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>盛贊軍隊強大...川普在華府閱兵 十萬名示威者竟大規模抗議</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8808667?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>英王壽辰閱兵 凱特母女裝現身 珠寶致敬已故英女王</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8807918?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>性感網紅竟被下迷姦藥！參加派對嘔吐斷片 拍片勸女提高警覺</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8808829?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>「副業」做AI晶片意外迎大爆發！博通股價一路飆70% 黑馬背後藏隱憂？</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808786?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>韓媒：三星2奈米良率約40% 吸引大客戶面挑戰</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808622?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>旺春輪火勢幾乎熄滅 印度將確保船隻停在距海岸線至少50海浬</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8808560?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>以色列警告伊朗居民 撤離武器設施附近</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8808548?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>以色列發布警告 對伊朗居民撤離武器設施附近</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808548?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>英國派軍機增援中東 德外長籲伊朗與歐洲三強立即會談</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808520?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>以色列過去48小時籲美國參戰打伊朗！川普說話了</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808467?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>路透曝美中倫敦會談內幕：陸未放行軍用稀土 美擬再延關稅寬限期90天</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8808448?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>日企推證券化商品 引散戶投資商用交通工具</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808834?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>影／美鹽湖城反川普遊行爆槍擊！連開3槍釀1男重傷 民眾竄逃畫面曝</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8808092?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>內唐亞胡的「大哥」說話了！ 川普：以色列與伊朗的戰爭應該結束</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8807763?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>二戰以來傷亡最慘膠著戰 川普態度牽動俄烏戰何去何從</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8806770?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>日銀考慮放緩縮減購債</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807607?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>美擬鬆綁自駕車規範 白宮傳下令重新檢視SpaceX合約</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807594?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>日本製鐵併美鋼 川普准了 美國政府將取得新公司「黃金股」</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807586?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>G7峰會前 美日談判趕進度</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8807595?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>克宮：普亭和川普通話 討論中東與烏克蘭議題</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8807739?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>陸新批准106家工廠資格 反制措施鬆動准美肉品進口</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8807617?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
           <t>美情報總監發出嚴厲警告 世界處在核毀滅邊緣</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>https://udn.com/news/story/124061/8807679?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>明尼蘇達州民主黨議員夫婦遭暗殺身亡 槍手冒充警察登門行凶</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807705?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>中東衝突加劇 美債不漲反跌 伊爾艾朗：反映這些因素</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807653?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>伊朗認了第3個濃縮鈾設施 聯合國恐將恢復制裁</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8807676?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>超級央行周來了 美日英台等國利率估不變</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807650?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>以伊衝突加劇 國際油價漲逾7%</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807673?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>美日第6輪關稅談判還在談...川普先簽字 允日鐵收購美鋼</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8807678?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>加密貨幣有夠好賺？財報揭露 川普去年進帳至少180億</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807681?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>伊朗4波回擊以色列 200飛彈、逾70戰機互攻</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8807682?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>二輪談判後陸釋善意 准106美肉品廠進口 再接收1架波音機</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8807677?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TikTok寬限期將屆 貝森特：美中二輪談判沒討論這個</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8807680?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>美議員槍擊案57歲凶嫌 反墮胎立場強烈</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809081?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>以總理內唐亞胡 喊話伊朗人民「起義」</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8807666?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>以伊衝突航班中斷 台旅客擬陸路赴土耳其返台</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8808007?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>中東衝突加劇 美股下殺769點 本周還將面對Fed決策這關卡</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8807654?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>數千紐約市民冒雨遊行抗議川普政府 高喊「不要國王」</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807764?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>秒殺斷貨！性感女神推限量「洗澡水」香皂 一塊從240元炒到6萬</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8807893?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>美議員連環槍擊案2死2重傷！槍手「70人狙殺名單」曝1共通點</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807927?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>星期人物／從爭議州長問鼎白宮 洛城暴動是紐森新轉機？</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122873/8805114?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>影／華府閱兵 無人戰車現身 美陸軍裝備一次看</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807923?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>反川普大規模示威 舊金山數萬人響應盼為民主而戰</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807889?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>華府睽違多年閱兵 川普：美國陸軍永不放棄永不投降</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807904?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>影／日「最美公主」訪巴西遭偷拍！機上瞌睡畫面曝光 日人氣炸</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8807884?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>未婚夫車禍亡！新娘疑與遺體行婚禮 「瞻仰遺容」影片震驚全網</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8807823?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>普亭致電川普祝生日快樂 雙方都盼結束中東衝突</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8807765?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>上合組織譴責以色列軍事打擊伊朗：行為不可接受</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8807872?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>印航279死空難第3天！印度政府下令「徹查波音787」不排除全面停飛</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124515/8807861?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>5比特犬圍剿！美男遭狂咬23分鐘縫500針傷重不治 主人下場曝</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8807828?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>健康來得及／睡眠債累累 試試美軍「睡眠儲蓄」祕訣吧</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8803108?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>影／川普79歲生日實現閱兵夢！6600兵力震撼華府 全美50州同步爆抗議潮</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807848?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>洛杉磯萬人聲援「無王日」 喊反對ICE執法歡迎移民</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807824?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>紐約「無王日」示威 反川普口號震天</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807808?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>以伊衝突重大升級！以軍轟炸伊朗天然氣田 威脅打擊「所有目標」</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8807815?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>讓步了？川普暫停ICE在農場、餐廳等工作場所執法</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8807796?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>風箏線奪命意外！機車騎士馬路突遭割頸亡 當局促禁用防悲劇重演</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8807825?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>學者：暴力民粹主義的時代 川普使此趨勢雪上加霜</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809084?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>

--- a/dist/整合結果/聯合國際/excel_by_week/2025_W24.xlsx
+++ b/dist/整合結果/聯合國際/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>以色列襲擊伊朗後 德黑蘭宣布退出周日與美國第6輪核談判</t>
+          <t>不滅榮光的傳承：日本「職棒先生」長嶋茂雄與MLB的時代淵源</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806012?from=udn-catelistnews_ch2</t>
+          <t>https://global.udn.com/global_vision/story/8664/8787298</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗至少95傷 傳20高階指揮官遭擊斃</t>
+          <t>以色列空襲伊朗！猛轟核設施和軍事基地 各國反應一次看</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8805981?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8805980?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>分析師警告3大衝擊今夏襲擊美債 川普欽定Fed新主席只是其一</t>
+          <t>以色列襲擊伊朗後 德黑蘭宣布退出周日與美國第6輪核談判</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8805756?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806012?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>給過1次又1次機會 川普警告：伊朗必須在一切化為烏有前達成協議</t>
+          <t>分析師警告3大衝擊今夏襲擊美債 川普欽定Fed新主席只是其一</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806037?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8805756?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>共軍動作頻頻 日參議員轟「認知戰陷阱」再稱夢到共機迫降釣魚台</t>
+          <t>給過1次又1次機會 川普警告：伊朗必須在一切化為烏有前達成協議</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8806033?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806037?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中東戰雲密布！市場避險需求增加 美股道瓊早盤挫逾600點</t>
+          <t>共軍動作頻頻 日參議員轟「認知戰陷阱」再稱夢到共機迫降釣魚台</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806071?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8806033?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>漫畫家預言日本7月5日大地震 日氣象廳長官再發聲</t>
+          <t>中東戰雲密布！市場避險需求增加 美股道瓊早盤挫逾600點</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8806063?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806071?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>讚雙方合作是典範！俄駐中大使：彼此是「無國界夥伴」</t>
+          <t>漫畫家預言日本7月5日大地震 日氣象廳長官再發聲</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8806097?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8806063?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>大而美法案有多歹毒？ 克魯曼：劫貧濟富只為向川普獻媚</t>
+          <t>讚雙方合作是典範！俄駐中大使：彼此是「無國界夥伴」</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806127?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8806097?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>研調：iPhone登5月大陸手機市場銷售冠軍 與關稅前搶購潮有關</t>
+          <t>大而美法案有多歹毒？ 克魯曼：劫貧濟富只為向川普獻媚</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8805902?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806127?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>以色列致命空襲伊朗 川普喊話放棄核發展：下波攻擊更殘暴</t>
+          <t>研調：iPhone登5月大陸手機市場銷售冠軍 與關稅前搶購潮有關</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8805752?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8805902?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗！猛轟核設施和軍事基地 各國反應一次看</t>
+          <t>以色列致命空襲伊朗 川普喊話放棄核發展：下波攻擊更殘暴</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8805980?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8805752?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>以色列攻擊伊朗 菲律賓大使館發安全通告籲僑民勿外出</t>
+          <t>以色列空襲伊朗至少95傷 傳20高階指揮官遭擊斃</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8805655?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8805981?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>「股神」巴菲特加持的光環消散 波克夏股價一度落入修正區</t>
+          <t>以色列攻擊伊朗 菲律賓大使館發安全通告籲僑民勿外出</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8805704?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8805655?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>倫敦會談險破局…貝森特突提「極音速飛彈」 陸代表才讓步</t>
+          <t>「股神」巴菲特加持的光環消散 波克夏股價一度落入修正區</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8803872?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8805704?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>川普關稅政策反覆 美財長：這是戰略不確定性</t>
+          <t>倫敦會談險破局…貝森特突提「極音速飛彈」 陸代表才讓步</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8803967?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8803872?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>川普速報／川普再施壓聯準會 AMD攜手OpenAI挑戰輝達</t>
+          <t>川普關稅政策反覆 美財長：這是戰略不確定性</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122714/8804064?from=udn-category</t>
+          <t>https://udn.com/news/story/124373/8803967?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>章魚燒沒章魚！日本50年老店「漲價還換口味」 淚曝心酸原因</t>
+          <t>川普速報／川普再施壓聯準會 AMD攜手OpenAI挑戰輝達</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8804114?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122714/8804064?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ChatGPT也會錯頻？她查購物清單遭喊「陌生姓名」 追問後認：要傳給別人</t>
+          <t>章魚燒沒章魚！日本50年老店「漲價還換口味」 淚曝心酸原因</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8804109?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8804114?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>人算不如天算！川普的壽辰閱兵美夢由於這原因恐怕辦不成</t>
+          <t>ChatGPT也會錯頻？她查購物清單遭喊「陌生姓名」 追問後認：要傳給別人</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8804243?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8804109?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>歐洲限制兒童使用社群 擬推數位成年年齡和驗證程式</t>
+          <t>人算不如天算！川普的壽辰閱兵美夢由於這原因恐怕辦不成</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8802387?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8804243?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>川普上訴又贏了 美國民兵調度權之爭 上訴法院准暫緩歸還加州</t>
+          <t>歐洲限制兒童使用社群 擬推數位成年年齡和驗證程式</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8804671?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121937/8802387?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>美聯邦法官裁定越權部署國民兵違法 川普政府提上訴</t>
+          <t>川普上訴又贏了 美國民兵調度權之爭 上訴法院准暫緩歸還加州</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8804764?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8804671?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>驅逐艦上月側翻遭金正恩罵翻 北韓修復完工下水</t>
+          <t>美聯邦法官裁定越權部署國民兵違法 川普政府提上訴</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8804329?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8804764?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>恐再提高進口汽車關稅…川普：關稅愈高 企業愈會來設廠</t>
+          <t>驅逐艦上月側翻遭金正恩罵翻 北韓修復完工下水</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8803955?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8804329?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>鮑爾未及時降息 川普再罵「傻瓜、太晚先生」但稱不會開除他</t>
+          <t>恐再提高進口汽車關稅…川普：關稅愈高 企業愈會來設廠</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8804367?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8803955?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>南韓暫停心戰廣播 北韓停播刺耳噪音改播輕柔歌曲</t>
+          <t>鮑爾未及時降息 川普再罵「傻瓜、太晚先生」但稱不會開除他</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8804322?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8804367?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>這次成功了！北韓出包驅逐艦重新下水 金正恩允再造兩艘</t>
+          <t>南韓暫停心戰廣播 北韓停播刺耳噪音改播輕柔歌曲</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8805388?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8804322?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>印航空難僅1人奇蹟生還 家屬事故現場悲採DNA尋至親</t>
+          <t>這次成功了！北韓出包驅逐艦重新下水 金正恩允再造兩艘</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8805370?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8805388?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>川普貿易戰鬧不停！這家美國晶片公司遭殃 併購案被陸方卡關</t>
+          <t>印航空難僅1人奇蹟生還 家屬事故現場悲採DNA尋至親</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8805458?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8805370?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>印航空難…醫學生摸黑逃命驚見機尾 悚憶生死瞬間：濃煙猛烈湧進</t>
+          <t>川普貿易戰鬧不停！這家美國晶片公司遭殃 併購案被陸方卡關</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8804940?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8805458?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>擁30年駕駛經驗…印航資深機師退休前遇死劫 8旬父等不到兒子歸來</t>
+          <t>印航空難…醫學生摸黑逃命驚見機尾 悚憶生死瞬間：濃煙猛烈湧進</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8805503?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8804940?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>印度航空重大空難逾260死 母公司塔塔集團：每人賠償344萬元</t>
+          <t>擁30年駕駛經驗…印航資深機師退休前遇死劫 8旬父等不到兒子歸來</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8804553?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8805503?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>才發生重大空難 印度航空普吉島飛德里航班驚傳收炸彈威脅</t>
+          <t>印度航空重大空難逾260死 母公司塔塔集團：每人賠償344萬元</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8805192?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8804553?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>馬克宏批社媒助長校園暴力 15歲以下擬禁 也促歐盟立法</t>
+          <t>才發生重大空難 印度航空普吉島飛德里航班驚傳收炸彈威脅</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8804324?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8805192?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>印度航空墜毀前 駕駛絕望求救「失去動力」搶救17秒後無回應</t>
+          <t>馬克宏批社媒助長校園暴力 15歲以下擬禁 也促歐盟立法</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8804954?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8804324?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1478,29 +1478,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>大陸公民德州買房將受限 華人社群發起抗議「打爆州議員電話」</t>
+          <t>印度航空墜毀前 駕駛絕望求救「失去動力」搶救17秒後無回應</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8805565?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8804954?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>知道出大事？以國空襲前「五角大廈狂買披薩」 爆量訂單預告危機</t>
+          <t>大陸公民德州買房將受限 華人社群發起抗議「打爆州議員電話」</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807314?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8805565?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>川普狂吸金！代言聖經年賺逾3800萬 加密幣事業撈17億</t>
+          <t>知道出大事？以國空襲前「五角大廈狂買披薩」 爆量訂單預告危機</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807287?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807314?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>身價破百億！她34歲成紐西蘭首位華人女首富 靠2特質成功創業</t>
+          <t>川普狂吸金！代言聖經年賺逾3800萬 加密幣事業撈17億</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8804686?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807287?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>員工剉著等…英特爾擬7月中旬啟動裁員計畫 首波人數尚未確定</t>
+          <t>身價破百億！她34歲成紐西蘭首位華人女首富 靠2特質成功創業</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807262?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8804686?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>大規模驅逐移民引議 外媒：川普指示暫停農場、飯店掃蕩行動</t>
+          <t>員工剉著等…英特爾擬7月中旬啟動裁員計畫 首波人數尚未確定</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807222?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807262?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>中東衝突加劇 壓抑美股追高！下周再迎Fed考驗</t>
+          <t>大規模驅逐移民引議 外媒：川普指示暫停農場、飯店掃蕩行動</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807241?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807222?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>以伊激烈交戰 美債為何不漲反跌？分析師：原因錯綜複雜</t>
+          <t>中東衝突加劇 壓抑美股追高！下周再迎Fed考驗</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807219?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807241?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>衝突升溫！伊朗揚言加劇回應以色列攻擊 恐攻擊美國中東基地</t>
+          <t>以伊激烈交戰 美債為何不漲反跌？分析師：原因錯綜複雜</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807192?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807219?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>兩國敵意難消…李在明上任迎挑戰 能否推動南北韓關係緩和？</t>
+          <t>衝突升溫！伊朗揚言加劇回應以色列攻擊 恐攻擊美國中東基地</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807113?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807192?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>全美白卡個資 衛生部交給國安部抓非法移民</t>
+          <t>兩國敵意難消…李在明上任迎挑戰 能否推動南北韓關係緩和？</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806863?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807113?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>美估華為AI晶片年產僅20萬顆 商務部BIS局：絕不感到自滿</t>
+          <t>全美白卡個資 衛生部交給國安部抓非法移民</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807097?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806863?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>印航空難唯一倖存旅客：自己解開安全帶 難想像從火球走出</t>
+          <t>美估華為AI晶片年產僅20萬顆 商務部BIS局：絕不感到自滿</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8806664?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807097?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>「下波攻擊更猛」川普籲伊朗盡快達核協議</t>
+          <t>印航空難唯一倖存旅客：自己解開安全帶 難想像從火球走出</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806619?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8806664?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>紐時：習近平交手川普「精準施壓、爭取時間」</t>
+          <t>「下波攻擊更猛」川普籲伊朗盡快達核協議</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807104?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806619?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>以色列關全球使領館 促海外國人填問卷通報所在位置</t>
+          <t>紐時：習近平交手川普「精準施壓、爭取時間」</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806662?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807104?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>WSJ：以色列癱瘓伊朗 手段像對付哈瑪斯、真主黨</t>
+          <t>以色列關全球使領館 促海外國人填問卷通報所在位置</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806594?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806662?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>歐盟27個成員國批准 收留烏克蘭難民延至2027年3月</t>
+          <t>WSJ：以色列癱瘓伊朗 手段像對付哈瑪斯、真主黨</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/122663/8806663?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806594?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>日鐵獲准收購美鋼 日媒：日美聯手與中互別苗頭</t>
+          <t>歐盟27個成員國批准 收留烏克蘭難民延至2027年3月</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807305?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/122663/8806663?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>美國家情報總監加巴德 社媒貼文示警：核戰一觸即發</t>
+          <t>日鐵獲准收購美鋼 日媒：日美聯手與中互別苗頭</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8806620?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807305?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>死亡人數上修…印航嚴重空難奪命 警方消息人士：增至279死</t>
+          <t>美國家情報總監加巴德 社媒貼文示警：核戰一觸即發</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807122?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8806620?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>美國德州遭遇洪患 至少10人喪命數人失蹤</t>
+          <t>死亡人數上修…印航嚴重空難奪命 警方消息人士：增至279死</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807317?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807122?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>以色列伊朗持續交火 教宗籲雙方展現理性進行對話</t>
+          <t>美國德州遭遇洪患 至少10人喪命數人失蹤</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807522?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807317?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>以國防部長撂狠話「德黑蘭將陷火海」 傳以色列再度空襲伊朗</t>
+          <t>以色列伊朗持續交火 教宗籲雙方展現理性進行對話</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807374?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807522?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>新澤西紐瓦克ICE拘留所爆發騷亂 4人脫逃</t>
+          <t>以國防部長撂狠話「德黑蘭將陷火海」 傳以色列再度空襲伊朗</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806865?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807374?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>紐約時報：太陽升起時 伊朗核計畫仍在</t>
+          <t>新澤西紐瓦克ICE拘留所爆發騷亂 4人脫逃</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807672?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806865?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>伊朗失算 沒料到以色列提前在美、伊核談判前動手</t>
+          <t>紐約時報：太陽升起時 伊朗核計畫仍在</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807665?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807672?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>以色列特工「奮起雄獅」行動 在全伊朗祕密部署武器</t>
+          <t>伊朗失算 沒料到以色列提前在美、伊核談判前動手</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807661?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807665?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>美防長赫塞斯：對以伊升溫不意外 準備好捍衛在中東利益</t>
+          <t>以色列特工「奮起雄獅」行動 在全伊朗祕密部署武器</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807684?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807661?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>以色列和伊朗再次互射導彈 核設施暫無洩漏</t>
+          <t>美防長赫塞斯：對以伊升溫不意外 準備好捍衛在中東利益</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807565?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807684?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>俄烏再度換俘 莫斯科另還1200具士兵遺體卻未收到交換</t>
+          <t>以色列和伊朗再次互射導彈 核設施暫無洩漏</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/122663/8807540?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807565?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>科技股太貴難下手？專家點名三檔仍便宜 籲投資人先換腦袋</t>
+          <t>俄烏再度換俘 莫斯科另還1200具士兵遺體卻未收到交換</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807545?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/122663/8807540?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>擋住俄軍推進 澤倫斯基：烏克蘭堅守蘇米州前線</t>
+          <t>科技股太貴難下手？專家點名三檔仍便宜 籲投資人先換腦袋</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/122663/8807533?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807545?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>伊朗遭猛攻後發射飛彈報復 以色列至少3死數十傷</t>
+          <t>擋住俄軍推進 澤倫斯基：烏克蘭堅守蘇米州前線</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807343?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/122663/8807533?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>中美關稅戰暫休兵 台商仍抱觀望態度…專家建議善用1條款規則</t>
+          <t>伊朗遭猛攻後發射飛彈報復 以色列至少3死數十傷</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807536?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807343?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>美陸軍成立250周年 川普生日閱兵將登場！各國經典閱兵式一次看</t>
+          <t>中美關稅戰暫休兵 台商仍抱觀望態度…專家建議善用1條款規則</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807516?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807536?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>南韓民間團體再對北韓空飄傳單 李在明指示研擬處罰措施</t>
+          <t>美陸軍成立250周年 川普生日閱兵將登場！各國經典閱兵式一次看</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807498?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807516?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>清淡飲食竟加速老化？醫師直言「1習慣超傷身」建議每天先喝這一杯</t>
+          <t>南韓民間團體再對北韓空飄傳單 李在明指示研擬處罰措施</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8807474?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807498?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>南非東開普省洪患尋獲更多罹難者 增至86人喪命</t>
+          <t>清淡飲食竟加速老化？醫師直言「1習慣超傷身」建議每天先喝這一杯</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807467?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8807474?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>立中外交陷僵局 立陶宛議員：中方人員已明確「道別」</t>
+          <t>南非東開普省洪患尋獲更多罹難者 增至86人喪命</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807432?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807467?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>台灣與拉脫維亞智庫合推新書 聚焦歐洲對台政策</t>
+          <t>立中外交陷僵局 立陶宛議員：中方人員已明確「道別」</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807400?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807432?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>黑盒子解讀中！印度航空重大空難奪命 波音787全面受檢</t>
+          <t>台灣與拉脫維亞智庫合推新書 聚焦歐洲對台政策</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807462?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807400?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>台灣在英宣傳赴台旅遊 倫敦鬧區現大型沉浸影音秀</t>
+          <t>黑盒子解讀中！印度航空重大空難奪命 波音787全面受檢</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807383?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807462?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>伊朗官媒證實2高階將領死於以色列打擊 約旦等國重開領空</t>
+          <t>台灣在英宣傳赴台旅遊 倫敦鬧區現大型沉浸影音秀</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807421?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807383?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>表彰體育和慈善貢獻 英格蘭足球傳奇貝克漢封爵</t>
+          <t>伊朗官媒證實2高階將領死於以色列打擊 約旦等國重開領空</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807527?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807421?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>美陸軍建軍250周年 90分鐘閱兵式 6000軍人重現重大戰役</t>
+          <t>表彰體育和慈善貢獻 英格蘭足球傳奇貝克漢封爵</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806873?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807527?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>早預料以色列會動手？伊朗官員怒斥「高層重大誤判」 曝光簡訊內容</t>
+          <t>美陸軍建軍250周年 90分鐘閱兵式 6000軍人重現重大戰役</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807127?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806873?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>天外飛來橫禍 民眾樹下睡覺因印航空難無辜喪命</t>
+          <t>早預料以色列會動手？伊朗官員怒斥「高層重大誤判」 曝光簡訊內容</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807052?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807127?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>美長債買盤穩健 化解疑慮</t>
+          <t>天外飛來橫禍 民眾樹下睡覺因印航空難無辜喪命</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806184?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807052?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>美總統再轟鮑爾未降息</t>
+          <t>美長債買盤穩健 化解疑慮</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806192?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806184?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>川普喊提高汽車關稅</t>
+          <t>美總統再轟鮑爾未降息</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8806188?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806192?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>「拒絕國王」 抗議 蠢蠢欲動</t>
+          <t>川普喊提高汽車關稅</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806190?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8806188?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1分鐘看世界／石破茂兌現競選承諾 全民普發2萬日圓現金</t>
+          <t>「拒絕國王」 抗議 蠢蠢欲動</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806193?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806190?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Meta進擊AI領域 跨大步</t>
+          <t>1分鐘看世界／石破茂兌現競選承諾 全民普發2萬日圓現金</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806172?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806193?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>沃爾瑪、亞馬遜研議發穩定幣</t>
+          <t>Meta進擊AI領域 跨大步</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806179?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806172?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Adobe調高2025年全年財測</t>
+          <t>沃爾瑪、亞馬遜研議發穩定幣</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806177?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806179?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗 …油價應聲大漲 美債、黃金飆升</t>
+          <t>Adobe調高2025年全年財測</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806258?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806177?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>以色列軍方證實伊朗發射飛彈 下令民眾避難</t>
+          <t>以色列空襲伊朗 …油價應聲大漲 美債、黃金飆升</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806383?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806258?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>華為今年AI晶片 美商務部：估產20萬顆</t>
+          <t>以色列軍方證實伊朗發射飛彈 下令民眾避難</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806252?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806383?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>川普關稅多變 美財長：談判手段</t>
+          <t>華為今年AI晶片 美商務部：估產20萬顆</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8806219?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806252?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗核設施 伊朗宣布退出第6輪核談判</t>
+          <t>川普關稅多變 美財長：談判手段</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806247?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8806219?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>老天爺不給面子...川普生日閱兵 氣象預告：可能下雨甚至雷暴</t>
+          <t>以色列空襲伊朗核設施 伊朗宣布退出第6輪核談判</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806226?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806247?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>美國上訴院裁定了！國民兵可繼續部署洛杉磯 異見參議員遭上銬</t>
+          <t>老天爺不給面子...川普生日閱兵 氣象預告：可能下雨甚至雷暴</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8806225?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806226?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>美國上訴院裁定了…國民兵可繼續部署洛杉磯 異見參議員遭上銬</t>
+          <t>美國上訴院裁定了！國民兵可繼續部署洛杉磯 異見參議員遭上銬</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806225?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8806225?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>籌畫數月…以控伊正加速研發核彈「空襲別無選擇」</t>
+          <t>美國上訴院裁定了…國民兵可繼續部署洛杉磯 異見參議員遭上銬</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806245?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806225?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>伊朗報復有5招 可能攻擊美基地</t>
+          <t>籌畫數月…以控伊正加速研發核彈「空襲別無選擇」</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806249?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806245?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>以斬首伊軍指揮官、核科學家 空軍高層幾乎團滅</t>
+          <t>伊朗報復有5招 可能攻擊美基地</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806244?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806249?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>6月14日美國「國旗日」由來？ 從地方活動變全國節日</t>
+          <t>以斬首伊軍指揮官、核科學家 空軍高層幾乎團滅</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806876?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806244?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>隱瞞以空襲 紐時：美正疏遠盟友</t>
+          <t>6月14日美國「國旗日」由來？ 從地方活動變全國節日</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806256?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806876?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>全美擬2千場抗議「拒絕國王」行動挑戰最大規模示威</t>
+          <t>隱瞞以空襲 紐時：美正疏遠盟友</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806389?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806256?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>川普再促聯準會降息 批主席鮑爾「傻瓜」、「太晚先生」</t>
+          <t>全美擬2千場抗議「拒絕國王」行動挑戰最大規模示威</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806230?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806389?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>以色列發動斬首 圖解空襲地點與伊朗核設施位置 斬首哪些關鍵人物？</t>
+          <t>川普再促聯準會降息 批主席鮑爾「傻瓜」、「太晚先生」</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122664/8806329?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8806230?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>以色列攻擊伊朗…道指暴跌700多點 避險需求推升油金價格</t>
+          <t>以色列發動斬首 圖解空襲地點與伊朗核設施位置 斬首哪些關鍵人物？</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806408?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122664/8806329?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>油輪船東停簽波斯灣租約 全球4分之1石油供給因以伊衝突受干擾</t>
+          <t>以色列攻擊伊朗…道指暴跌700多點 避險需求推升油金價格</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807005?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806408?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>川普早知以色列要攻伊朗 稱仍有空間談成核協議</t>
+          <t>油輪船東停簽波斯灣租約 全球4分之1石油供給因以伊衝突受干擾</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806760?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807005?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>遭遇嚴重塞車晚到機場10分鐘 女學生意外逃過印航墜機死劫</t>
+          <t>川普早知以色列要攻伊朗 稱仍有空間談成核協議</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8806825?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806760?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>新郎度蜜月被殺棄屍山谷！新娘自首爆與情夫合謀「失敗3次才成功」</t>
+          <t>遭遇嚴重塞車晚到機場10分鐘 女學生意外逃過印航墜機死劫</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8806660?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8806825?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>郭崇倫會客室EP215｜美債失控、美元動搖 1930年代經濟大蕭條正在醞釀？ft.國際金融史權威Barry Eichengreen</t>
+          <t>新郎度蜜月被殺棄屍山谷！新娘自首爆與情夫合謀「失敗3次才成功」</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122217/8806732?from=udn-category</t>
+          <t>https://udn.com/news/story/6810/8806660?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>以色列空襲反效果？伊朗恐以利比亞前強人格達費為鑑 加速發展核武</t>
+          <t>郭崇倫會客室EP215｜美債失控、美元動搖 1930年代經濟大蕭條正在醞釀？ft.國際金融史權威Barry Eichengreen</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806759?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122217/8806732?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>被稱煉金師 范斯政治權謀在川馬相爭中嶄露頭角</t>
+          <t>以色列空襲反效果？伊朗恐以利比亞前強人格達費為鑑 加速發展核武</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8805255?from=udn-category</t>
+          <t>https://udn.com/news/story/124061/8806759?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>疑遭飛彈擊中！德黑蘭機場傳爆炸起火 濃煙狂竄</t>
+          <t>被稱煉金師 范斯政治權謀在川馬相爭中嶄露頭角</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806572?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121937/8805255?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>以色列猛攻伊朗真正目標不只核計畫？疑劍指「政權更迭」</t>
+          <t>疑遭飛彈擊中！德黑蘭機場傳爆炸起火 濃煙狂竄</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806985?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806572?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>美國陸戰隊員進駐洛杉磯 軍方證實首度拘留平民</t>
+          <t>以色列猛攻伊朗真正目標不只核計畫？疑劍指「政權更迭」</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806917?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806985?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>以色列「崛起之獅」行動斬首伊朗軍方高層 多人被炸死在床上</t>
+          <t>美國陸戰隊員進駐洛杉磯 軍方證實首度拘留平民</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806534?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806917?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>幸運錯過印航墜機！印度女飛倫敦會丈夫 塞車晚10分鐘逃死劫</t>
+          <t>以色列「崛起之獅」行動斬首伊朗軍方高層 多人被炸死在床上</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8806475?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806534?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>准了！川普發布行政命令 就日鐵收購美鋼達成國安協議</t>
+          <t>幸運錯過印航墜機！印度女飛倫敦會丈夫 塞車晚10分鐘逃死劫</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806503?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8806475?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>華府閱兵儀式14日登場 1991年以來規模最大</t>
+          <t>准了！川普發布行政命令 就日鐵收購美鋼達成國安協議</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806467?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806503?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>今昔文化的碰撞！千年古城慶州「永久存放核廢料」 南韓經驗台灣能學？</t>
+          <t>華府閱兵儀式14日登場 1991年以來規模最大</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8801772?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806467?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>誓言打開「地獄之門」！伊朗對以色列狂射百枚飛彈報復</t>
+          <t>今昔文化的碰撞！千年古城慶州「永久存放核廢料」 南韓經驗台灣能學？</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8806476?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8801772?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>漫畫家預言日本7月5日大地震 日氣象廳長官再發聲</t>
+          <t>誓言打開「地獄之門」！伊朗對以色列狂射百枚飛彈報復</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8806063?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8806476?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>全美擬2千場抗議「拒絕國王」行動挑戰最大規模示威</t>
+          <t>漫畫家預言日本7月5日大地震 日氣象廳長官再發聲</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806389?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8806063?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>美中台博弈／扮台海衝突外卡 朝鮮半島新局演變迅速</t>
+          <t>全美擬2千場抗議「拒絕國王」行動挑戰最大規模示威</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122870/8805298?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8806389?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3042,29 +3042,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>全美串連無王日抗議前夕 200名陸戰隊抵洛杉磯</t>
+          <t>美中台博弈／扮台海衝突外卡 朝鮮半島新局演變迅速</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8806481?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122870/8805298?from=udn-category</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>伊朗持續飛彈報復 以色列專挑油田轟炸</t>
+          <t>全美串連無王日抗議前夕 200名陸戰隊抵洛杉磯</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807892?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8806481?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>王毅促以伊外交解決戰火 明州州長：只有北京能促和談</t>
+          <t>伊朗持續飛彈報復 以色列專挑油田轟炸</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808048?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807892?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>川普實現閱兵夢 逾6600兵、150車、50架飛機震撼華府</t>
+          <t>王毅促以伊外交解決戰火 明州州長：只有北京能促和談</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807950?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808048?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>貝克漢圓夢 英王室表彰體育和慈善貢獻封爵</t>
+          <t>川普實現閱兵夢 逾6600兵、150車、50架飛機震撼華府</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807917?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807950?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>身亡明州議員 霍爾曼推任內通過擴大墮胎權、娛樂大麻合法化</t>
+          <t>貝克漢圓夢 英王室表彰體育和慈善貢獻封爵</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807910?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807917?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>大缺工 川普轉彎了 ICE暫停掃蕩搜捕農場、旅館、餐館</t>
+          <t>身亡明州議員 霍爾曼推任內通過擴大墮胎權、娛樂大麻合法化</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807944?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807910?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>美旅遊禁令擬新增36國 非洲最多</t>
+          <t>大缺工 川普轉彎了 ICE暫停掃蕩搜捕農場、旅館、餐館</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807906?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807944?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>以色列總理喊話伊朗人民「起義」 猛攻德黑蘭劍指政權更迭</t>
+          <t>美旅遊禁令擬新增36國 非洲最多</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807920?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807906?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>以軍70架戰機奔襲德黑蘭 伊朗飛彈打海法</t>
+          <t>以色列總理喊話伊朗人民「起義」 猛攻德黑蘭劍指政權更迭</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808100?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807920?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>印航起飛1分鐘急求救 全面重檢波音787 女子遲到被拒登機逃死劫</t>
+          <t>以軍70架戰機奔襲德黑蘭 伊朗飛彈打海法</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807915?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808100?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>日鐵獲准收購美鋼 華府持「黃金股」日媒：聯手與中別苗頭</t>
+          <t>印航起飛1分鐘急求救 全面重檢波音787 女子遲到被拒登機逃死劫</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807916?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807915?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>川普過壽全美抗爭 批川威權、反濫用公帑</t>
+          <t>日鐵獲准收購美鋼 華府持「黃金股」日媒：聯手與中別苗頭</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8808247?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807916?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>影／印度再傳空難！直升機墜毀神廟附近釀7死 林間殘骸狂燒畫面曝</t>
+          <t>川普過壽全美抗爭 批川威權、反濫用公帑</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8808309?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8808247?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>影／杜拜67層摩天大樓深夜大火！火舌沿牆猛竄畫面曝 3820人險逃生</t>
+          <t>影／印度再傳空難！直升機墜毀神廟附近釀7死 林間殘骸狂燒畫面曝</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8808250?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8808309?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>以色列持續轟炸伊朗 還想暗殺胡塞叛軍</t>
+          <t>影／杜拜67層摩天大樓深夜大火！火舌沿牆猛竄畫面曝 3820人險逃生</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808141?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8808250?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>政治謀殺 明州2參眾議員夫婦遭槍擊2死2傷 暗殺名單含州長、議員</t>
+          <t>以色列持續轟炸伊朗 還想暗殺胡塞叛軍</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807951?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808141?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>iPhone更耐用的秘密？開箱蘋果矽谷測試實驗室</t>
+          <t>政治謀殺 明州2參眾議員夫婦遭槍擊2死2傷 暗殺名單含州長、議員</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808185?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807951?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>直擊以伊戰火 央視女記者戴頭盔、穿防彈背心直播</t>
+          <t>iPhone更耐用的秘密？開箱蘋果矽谷測試實驗室</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808050?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8808185?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>美國明尼蘇達州槍擊案 嫌犯曾向友人表示「時日無多」</t>
+          <t>直擊以伊戰火 央視女記者戴頭盔、穿防彈背心直播</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8808254?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808050?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>以色列連兩天攻擊加薩走廊 醫療機構估至少57死</t>
+          <t>美國明尼蘇達州槍擊案 嫌犯曾向友人表示「時日無多」</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808695?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8808254?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>法國前總統沙柯吉涉貪 最高榮譽勳章遭撤回</t>
+          <t>以色列連兩天攻擊加薩走廊 醫療機構估至少57死</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8808397?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808695?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>「不要國王」示威 全美遍地開花反川普、反獨裁</t>
+          <t>法國前總統沙柯吉涉貪 最高榮譽勳章遭撤回</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809073?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8808397?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>影／一文看懂伊朗火力！「烈士」飛彈首曝光 以色列防空扛得住？</t>
+          <t>「不要國王」示威 全美遍地開花反川普、反獨裁</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808210?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809073?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>伊以繼續互相轟炸 川普稱衝突「很容易結束」</t>
+          <t>影／一文看懂伊朗火力！「烈士」飛彈首曝光 以色列防空扛得住？</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809025?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808210?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>旅行禁令生效後…川普擬再擴大！36國新名單「非洲國家最多」</t>
+          <t>伊以繼續互相轟炸 川普稱衝突「很容易結束」</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809014?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809025?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>「普亭打給我」川普：美國可能將涉入以伊衝突 他可當和事佬</t>
+          <t>旅行禁令生效後…川普擬再擴大！36國新名單「非洲國家最多」</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809023?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809014?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>「讓中東再次偉大！」 川普喊以色列、伊朗一定達成協議</t>
+          <t>「普亭打給我」川普：美國可能將涉入以伊衝突 他可當和事佬</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808953?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809023?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>23年首見！東協超車大陸 成為「這國家」最大出口市場</t>
+          <t>「讓中東再次偉大！」 川普喊以色列、伊朗一定達成協議</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808917?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808953?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>盛贊軍隊強大...川普在華府閱兵 十萬名示威者竟大規模抗議</t>
+          <t>23年首見！東協超車大陸 成為「這國家」最大出口市場</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8808667?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8808917?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>英王壽辰閱兵 凱特母女裝現身 珠寶致敬已故英女王</t>
+          <t>盛贊軍隊強大...川普在華府閱兵 十萬名示威者竟大規模抗議</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807918?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8808667?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>性感網紅竟被下迷姦藥！參加派對嘔吐斷片 拍片勸女提高警覺</t>
+          <t>英王壽辰閱兵 凱特母女裝現身 珠寶致敬已故英女王</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8808829?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807918?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>「副業」做AI晶片意外迎大爆發！博通股價一路飆70% 黑馬背後藏隱憂？</t>
+          <t>性感網紅竟被下迷姦藥！參加派對嘔吐斷片 拍片勸女提高警覺</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808786?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8808829?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>韓媒：三星2奈米良率約40% 吸引大客戶面挑戰</t>
+          <t>「副業」做AI晶片意外迎大爆發！博通股價一路飆70% 黑馬背後藏隱憂？</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808622?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8808786?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>旺春輪火勢幾乎熄滅 印度將確保船隻停在距海岸線至少50海浬</t>
+          <t>韓媒：三星2奈米良率約40% 吸引大客戶面挑戰</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8808560?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8808622?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>以色列警告伊朗居民 撤離武器設施附近</t>
+          <t>旺春輪火勢幾乎熄滅 印度將確保船隻停在距海岸線至少50海浬</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8808548?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8808560?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>以色列發布警告 對伊朗居民撤離武器設施附近</t>
+          <t>以色列警告伊朗居民 撤離武器設施附近</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808548?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8808548?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>英國派軍機增援中東 德外長籲伊朗與歐洲三強立即會談</t>
+          <t>以色列發布警告 對伊朗居民撤離武器設施附近</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808520?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808548?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>以色列過去48小時籲美國參戰打伊朗！川普說話了</t>
+          <t>英國派軍機增援中東 德外長籲伊朗與歐洲三強立即會談</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808467?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808520?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>路透曝美中倫敦會談內幕：陸未放行軍用稀土 美擬再延關稅寬限期90天</t>
+          <t>以色列過去48小時籲美國參戰打伊朗！川普說話了</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8808448?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808467?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>日企推證券化商品 引散戶投資商用交通工具</t>
+          <t>路透曝美中倫敦會談內幕：陸未放行軍用稀土 美擬再延關稅寬限期90天</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808834?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8808448?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>影／美鹽湖城反川普遊行爆槍擊！連開3槍釀1男重傷 民眾竄逃畫面曝</t>
+          <t>日企推證券化商品 引散戶投資商用交通工具</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8808092?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8808834?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>內唐亞胡的「大哥」說話了！ 川普：以色列與伊朗的戰爭應該結束</t>
+          <t>影／美鹽湖城反川普遊行爆槍擊！連開3槍釀1男重傷 民眾竄逃畫面曝</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807763?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8808092?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>二戰以來傷亡最慘膠著戰 川普態度牽動俄烏戰何去何從</t>
+          <t>內唐亞胡的「大哥」說話了！ 川普：以色列與伊朗的戰爭應該結束</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8806770?from=udn-category</t>
+          <t>https://udn.com/news/story/124061/8807763?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>日銀考慮放緩縮減購債</t>
+          <t>二戰以來傷亡最慘膠著戰 川普態度牽動俄烏戰何去何從</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807607?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121937/8806770?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>美擬鬆綁自駕車規範 白宮傳下令重新檢視SpaceX合約</t>
+          <t>日銀考慮放緩縮減購債</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807594?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807607?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>日本製鐵併美鋼 川普准了 美國政府將取得新公司「黃金股」</t>
+          <t>美擬鬆綁自駕車規範 白宮傳下令重新檢視SpaceX合約</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807586?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807594?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>G7峰會前 美日談判趕進度</t>
+          <t>日本製鐵併美鋼 川普准了 美國政府將取得新公司「黃金股」</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807595?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807586?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>克宮：普亭和川普通話 討論中東與烏克蘭議題</t>
+          <t>G7峰會前 美日談判趕進度</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807739?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807595?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>陸新批准106家工廠資格 反制措施鬆動准美肉品進口</t>
+          <t>克宮：普亭和川普通話 討論中東與烏克蘭議題</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807617?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807739?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>美情報總監發出嚴厲警告 世界處在核毀滅邊緣</t>
+          <t>陸新批准106家工廠資格 反制措施鬆動准美肉品進口</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807679?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807617?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>明尼蘇達州民主黨議員夫婦遭暗殺身亡 槍手冒充警察登門行凶</t>
+          <t>美情報總監發出嚴厲警告 世界處在核毀滅邊緣</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807705?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807679?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>中東衝突加劇 美債不漲反跌 伊爾艾朗：反映這些因素</t>
+          <t>明尼蘇達州民主黨議員夫婦遭暗殺身亡 槍手冒充警察登門行凶</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807653?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807705?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>伊朗認了第3個濃縮鈾設施 聯合國恐將恢復制裁</t>
+          <t>中東衝突加劇 美債不漲反跌 伊爾艾朗：反映這些因素</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807676?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807653?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>超級央行周來了 美日英台等國利率估不變</t>
+          <t>伊朗認了第3個濃縮鈾設施 聯合國恐將恢復制裁</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807650?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807676?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>以伊衝突加劇 國際油價漲逾7%</t>
+          <t>超級央行周來了 美日英台等國利率估不變</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807673?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807650?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -3994,12 +3994,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>美日第6輪關稅談判還在談...川普先簽字 允日鐵收購美鋼</t>
+          <t>以伊衝突加劇 國際油價漲逾7%</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807678?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807673?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>加密貨幣有夠好賺？財報揭露 川普去年進帳至少180億</t>
+          <t>美日第6輪關稅談判還在談...川普先簽字 允日鐵收購美鋼</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807681?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807678?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>伊朗4波回擊以色列 200飛彈、逾70戰機互攻</t>
+          <t>加密貨幣有夠好賺？財報揭露 川普去年進帳至少180億</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807682?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807681?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>二輪談判後陸釋善意 准106美肉品廠進口 再接收1架波音機</t>
+          <t>伊朗4波回擊以色列 200飛彈、逾70戰機互攻</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807677?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807682?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TikTok寬限期將屆 貝森特：美中二輪談判沒討論這個</t>
+          <t>二輪談判後陸釋善意 准106美肉品廠進口 再接收1架波音機</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8807680?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807677?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>美議員槍擊案57歲凶嫌 反墮胎立場強烈</t>
+          <t>TikTok寬限期將屆 貝森特：美中二輪談判沒討論這個</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809081?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8807680?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>以總理內唐亞胡 喊話伊朗人民「起義」</t>
+          <t>美議員槍擊案57歲凶嫌 反墮胎立場強烈</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807666?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809081?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>以伊衝突航班中斷 台旅客擬陸路赴土耳其返台</t>
+          <t>以總理內唐亞胡 喊話伊朗人民「起義」</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8808007?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807666?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>中東衝突加劇 美股下殺769點 本周還將面對Fed決策這關卡</t>
+          <t>以伊衝突航班中斷 台旅客擬陸路赴土耳其返台</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8807654?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8808007?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>數千紐約市民冒雨遊行抗議川普政府 高喊「不要國王」</t>
+          <t>中東衝突加劇 美股下殺769點 本周還將面對Fed決策這關卡</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807764?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8807654?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>秒殺斷貨！性感女神推限量「洗澡水」香皂 一塊從240元炒到6萬</t>
+          <t>數千紐約市民冒雨遊行抗議川普政府 高喊「不要國王」</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8807893?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807764?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>美議員連環槍擊案2死2重傷！槍手「70人狙殺名單」曝1共通點</t>
+          <t>秒殺斷貨！性感女神推限量「洗澡水」香皂 一塊從240元炒到6萬</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807927?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8807893?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>星期人物／從爭議州長問鼎白宮 洛城暴動是紐森新轉機？</t>
+          <t>美議員連環槍擊案2死2重傷！槍手「70人狙殺名單」曝1共通點</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122873/8805114?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8807927?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>影／華府閱兵 無人戰車現身 美陸軍裝備一次看</t>
+          <t>星期人物／從爭議州長問鼎白宮 洛城暴動是紐森新轉機？</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807923?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122873/8805114?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>反川普大規模示威 舊金山數萬人響應盼為民主而戰</t>
+          <t>影／華府閱兵 無人戰車現身 美陸軍裝備一次看</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807889?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807923?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>華府睽違多年閱兵 川普：美國陸軍永不放棄永不投降</t>
+          <t>反川普大規模示威 舊金山數萬人響應盼為民主而戰</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807904?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807889?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>影／日「最美公主」訪巴西遭偷拍！機上瞌睡畫面曝光 日人氣炸</t>
+          <t>華府睽違多年閱兵 川普：美國陸軍永不放棄永不投降</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8807884?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807904?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>未婚夫車禍亡！新娘疑與遺體行婚禮 「瞻仰遺容」影片震驚全網</t>
+          <t>影／日「最美公主」訪巴西遭偷拍！機上瞌睡畫面曝光 日人氣炸</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8807823?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8807884?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>普亭致電川普祝生日快樂 雙方都盼結束中東衝突</t>
+          <t>未婚夫車禍亡！新娘疑與遺體行婚禮 「瞻仰遺容」影片震驚全網</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8807765?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8807823?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>上合組織譴責以色列軍事打擊伊朗：行為不可接受</t>
+          <t>普亭致電川普祝生日快樂 雙方都盼結束中東衝突</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807872?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8807765?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>印航279死空難第3天！印度政府下令「徹查波音787」不排除全面停飛</t>
+          <t>上合組織譴責以色列軍事打擊伊朗：行為不可接受</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8807861?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807872?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>5比特犬圍剿！美男遭狂咬23分鐘縫500針傷重不治 主人下場曝</t>
+          <t>印航279死空難第3天！印度政府下令「徹查波音787」不排除全面停飛</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8807828?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8807861?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>健康來得及／睡眠債累累 試試美軍「睡眠儲蓄」祕訣吧</t>
+          <t>5比特犬圍剿！美男遭狂咬23分鐘縫500針傷重不治 主人下場曝</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8803108?from=udn-category</t>
+          <t>https://udn.com/news/story/6810/8807828?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>影／川普79歲生日實現閱兵夢！6600兵力震撼華府 全美50州同步爆抗議潮</t>
+          <t>健康來得及／睡眠債累累 試試美軍「睡眠儲蓄」祕訣吧</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807848?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121937/8803108?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>洛杉磯萬人聲援「無王日」 喊反對ICE執法歡迎移民</t>
+          <t>影／川普79歲生日實現閱兵夢！6600兵力震撼華府 全美50州同步爆抗議潮</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807824?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807848?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>紐約「無王日」示威 反川普口號震天</t>
+          <t>洛杉磯萬人聲援「無王日」 喊反對ICE執法歡迎移民</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807808?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807824?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>以伊衝突重大升級！以軍轟炸伊朗天然氣田 威脅打擊「所有目標」</t>
+          <t>紐約「無王日」示威 反川普口號震天</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8807815?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807808?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>讓步了？川普暫停ICE在農場、餐廳等工作場所執法</t>
+          <t>以伊衝突重大升級！以軍轟炸伊朗天然氣田 威脅打擊「所有目標」</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8807796?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8807815?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>風箏線奪命意外！機車騎士馬路突遭割頸亡 當局促禁用防悲劇重演</t>
+          <t>讓步了？川普暫停ICE在農場、餐廳等工作場所執法</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8807825?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8807796?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -4487,10 +4487,27 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>風箏線奪命意外！機車騎士馬路突遭割頸亡 當局促禁用防悲劇重演</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8807825?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
           <t>學者：暴力民粹主義的時代 川普使此趨勢雪上加霜</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>https://udn.com/news/story/6813/8809084?from=udn-catelistnews_ch2</t>
         </is>
